--- a/MPP Chinese translation.xlsx
+++ b/MPP Chinese translation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kailee\Documents\GitHub\mannerpathChinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA395D3-F681-440F-9EA7-7CB5B04508C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533D3A0-A681-41CC-A93F-A6D42C873CAE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6950" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPP_videos (2)" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3882" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="1594">
   <si>
     <t>List</t>
   </si>
@@ -8947,13 +8947,489 @@
   </si>
   <si>
     <t>stoopwalk ???</t>
+  </si>
+  <si>
+    <t>哇</t>
+  </si>
+  <si>
+    <t>你能找到那个吗？</t>
+  </si>
+  <si>
+    <t>再看一下吧</t>
+  </si>
+  <si>
+    <t>准备好</t>
+  </si>
+  <si>
+    <t>好棒</t>
+  </si>
+  <si>
+    <t>现在，让我们看</t>
+  </si>
+  <si>
+    <t>狗有一个骨头</t>
+  </si>
+  <si>
+    <t>那只狗有骨头？</t>
+  </si>
+  <si>
+    <t>xx在哪里？</t>
+  </si>
+  <si>
+    <t>骨头在哪里？</t>
+  </si>
+  <si>
+    <t>狗有一本XX</t>
+  </si>
+  <si>
+    <t>哪一只狗有</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从圆锥体上lia1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> liǎ (change it)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要jiong3向小丑/向小丑jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">来 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（change it to Jiong3 since Jion4 cannot be typed)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽jiong3向小丑了/向小丑jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽jiong3向小丑了/向小丑jiong4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从圆锥体上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <t>哪一个是jiong3?</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从邮箱中jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+  </si>
+  <si>
+    <t>怪兽要在飞船周围lia3</t>
+  </si>
+  <si>
+    <t>哪一个是lia3?</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从书上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从邮箱中jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 了</t>
+    </r>
+  </si>
+  <si>
+    <t>怪兽在飞船周围lia3了</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从书上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要在凳子前面jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要朝小狗lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从轮胎上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要jiong3向一头牛/向一头牛jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要在凳子前面han4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽在凳子前面jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">来 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽朝小狗lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽jiong3向一头牛/向一头牛jiong4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从轮胎上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <t>让我们找找Kuo2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Jiong3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Liao2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Pan3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找mou2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Suo3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Lia3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找han4在哪里</t>
+  </si>
+  <si>
+    <t>你看到那个了吗？</t>
+  </si>
+  <si>
+    <t>让我们再看一会儿</t>
+  </si>
+  <si>
+    <t>准备好啦</t>
+  </si>
+  <si>
+    <t>真棒</t>
+  </si>
+  <si>
+    <t>现在让我们看看</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9021,6 +9497,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9513,15 +9997,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DFD1F-345F-4526-807E-6A916CCFBA00}">
-  <dimension ref="A1:BZ51"/>
+  <dimension ref="A1:CA51"/>
   <sheetViews>
-    <sheetView topLeftCell="BF4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:BZ33"/>
+    <sheetView tabSelected="1" topLeftCell="H29" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
     <col min="11" max="11" width="46.5" customWidth="1"/>
     <col min="12" max="12" width="41.6640625" customWidth="1"/>
     <col min="13" max="13" width="41.6640625" style="18" customWidth="1"/>
@@ -9569,12 +10054,13 @@
     <col min="60" max="60" width="41.33203125" customWidth="1"/>
     <col min="61" max="61" width="42" customWidth="1"/>
     <col min="62" max="73" width="10.83203125" customWidth="1"/>
-    <col min="74" max="74" width="26" customWidth="1"/>
-    <col min="75" max="75" width="29.83203125" customWidth="1"/>
-    <col min="76" max="76" width="24.1640625" customWidth="1"/>
+    <col min="74" max="74" width="21.6640625" style="18" customWidth="1"/>
+    <col min="75" max="75" width="26" customWidth="1"/>
+    <col min="76" max="76" width="29.83203125" customWidth="1"/>
+    <col min="77" max="77" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="15" customFormat="1">
+    <row r="1" spans="1:79" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -9791,23 +10277,26 @@
       <c r="BU1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="BV1" s="17" t="s">
+      <c r="BV1" s="18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BW1" s="17" t="s">
         <v>1281</v>
       </c>
-      <c r="BW1" s="17" t="s">
+      <c r="BX1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="BX1" s="17" t="s">
+      <c r="BY1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BZ1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="CA1" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:78">
+    <row r="2" spans="1:79">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10024,23 +10513,26 @@
       <c r="BU2" t="s">
         <v>75</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BV2" s="18" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BW2" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="BW2" s="14" t="s">
+      <c r="BX2" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BY2" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:78">
+    <row r="3" spans="1:79">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10078,7 +10570,7 @@
         <v>82</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>1348</v>
+        <v>1560</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>1384</v>
@@ -10102,7 +10594,7 @@
         <v>83</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>1370</v>
+        <v>1561</v>
       </c>
       <c r="V3" s="19" t="s">
         <v>1386</v>
@@ -10120,7 +10612,7 @@
         <v>86</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>1372</v>
+        <v>1564</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>1398</v>
@@ -10141,7 +10633,7 @@
         <v>90</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>1413</v>
+        <v>1565</v>
       </c>
       <c r="AJ3" s="18" t="s">
         <v>1428</v>
@@ -10156,7 +10648,7 @@
         <v>92</v>
       </c>
       <c r="AN3" s="19" t="s">
-        <v>1473</v>
+        <v>1569</v>
       </c>
       <c r="AO3" s="18" t="s">
         <v>1453</v>
@@ -10174,7 +10666,7 @@
         <v>95</v>
       </c>
       <c r="AT3" s="19" t="s">
-        <v>1475</v>
+        <v>1572</v>
       </c>
       <c r="AU3" s="5" t="s">
         <v>96</v>
@@ -10186,7 +10678,7 @@
         <v>97</v>
       </c>
       <c r="AX3" s="19" t="s">
-        <v>1512</v>
+        <v>1577</v>
       </c>
       <c r="AY3" s="5" t="s">
         <v>98</v>
@@ -10257,23 +10749,26 @@
       <c r="BU3" t="s">
         <v>113</v>
       </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BV3" s="18" t="s">
+        <v>1582</v>
+      </c>
+      <c r="BW3" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="BW3" s="14" t="s">
+      <c r="BX3" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="BX3" s="8" t="s">
+      <c r="BY3" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="BY3" t="s">
+      <c r="BZ3" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" t="s">
+      <c r="CA3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:79">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10490,23 +10985,26 @@
       <c r="BU4" t="s">
         <v>151</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" s="18" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BW4" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="BW4" s="14" t="s">
+      <c r="BX4" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="BX4" s="8" t="s">
+      <c r="BY4" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="BY4" t="s">
+      <c r="BZ4" t="s">
         <v>152</v>
       </c>
-      <c r="BZ4" t="s">
+      <c r="CA4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:78">
+    <row r="5" spans="1:79">
       <c r="A5">
         <v>1</v>
       </c>
@@ -10723,23 +11221,26 @@
       <c r="BU5" t="s">
         <v>189</v>
       </c>
-      <c r="BV5" s="3" t="s">
+      <c r="BV5" s="18" t="s">
+        <v>1584</v>
+      </c>
+      <c r="BW5" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="BW5" s="14" t="s">
+      <c r="BX5" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="BX5" s="8" t="s">
+      <c r="BY5" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="BZ5" t="s">
         <v>190</v>
       </c>
-      <c r="BZ5" t="s">
+      <c r="CA5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:79">
       <c r="A6">
         <v>1</v>
       </c>
@@ -10956,23 +11457,26 @@
       <c r="BU6" t="s">
         <v>227</v>
       </c>
-      <c r="BV6" s="3" t="s">
+      <c r="BV6" s="18" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BW6" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="BW6" s="14" t="s">
+      <c r="BX6" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="BX6" s="8" t="s">
+      <c r="BY6" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="BY6" t="s">
+      <c r="BZ6" t="s">
         <v>228</v>
       </c>
-      <c r="BZ6" t="s">
+      <c r="CA6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:78">
+    <row r="7" spans="1:79">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11189,23 +11693,26 @@
       <c r="BU7" t="s">
         <v>264</v>
       </c>
-      <c r="BV7" s="3" t="s">
+      <c r="BV7" s="18" t="s">
+        <v>1586</v>
+      </c>
+      <c r="BW7" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="BW7" s="14" t="s">
+      <c r="BX7" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="BX7" s="8" t="s">
+      <c r="BY7" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="BY7" t="s">
+      <c r="BZ7" t="s">
         <v>265</v>
       </c>
-      <c r="BZ7" t="s">
+      <c r="CA7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:78">
+    <row r="8" spans="1:79">
       <c r="A8">
         <v>1</v>
       </c>
@@ -11243,7 +11750,7 @@
         <v>271</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>1353</v>
+        <v>1559</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>1382</v>
@@ -11267,7 +11774,7 @@
         <v>272</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>1368</v>
+        <v>1563</v>
       </c>
       <c r="V8" s="19" t="s">
         <v>1392</v>
@@ -11285,7 +11792,7 @@
         <v>275</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>1377</v>
+        <v>1567</v>
       </c>
       <c r="AB8" s="18" t="s">
         <v>1405</v>
@@ -11306,7 +11813,7 @@
         <v>279</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>1416</v>
+        <v>1566</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>1430</v>
@@ -11321,7 +11828,7 @@
         <v>281</v>
       </c>
       <c r="AN8" s="20" t="s">
-        <v>1468</v>
+        <v>1570</v>
       </c>
       <c r="AO8" s="18" t="s">
         <v>1448</v>
@@ -11339,7 +11846,7 @@
         <v>284</v>
       </c>
       <c r="AT8" s="20" t="s">
-        <v>1480</v>
+        <v>1573</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>285</v>
@@ -11351,7 +11858,7 @@
         <v>286</v>
       </c>
       <c r="AX8" s="20" t="s">
-        <v>1507</v>
+        <v>1578</v>
       </c>
       <c r="AY8" s="4" t="s">
         <v>287</v>
@@ -11422,23 +11929,26 @@
       <c r="BU8" t="s">
         <v>302</v>
       </c>
-      <c r="BV8" s="3" t="s">
+      <c r="BV8" s="18" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BW8" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BW8" s="14" t="s">
+      <c r="BX8" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="BX8" s="8" t="s">
+      <c r="BY8" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="BY8" t="s">
+      <c r="BZ8" t="s">
         <v>303</v>
       </c>
-      <c r="BZ8" t="s">
+      <c r="CA8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:78">
+    <row r="9" spans="1:79">
       <c r="A9">
         <v>1</v>
       </c>
@@ -11655,23 +12165,26 @@
       <c r="BU9" t="s">
         <v>339</v>
       </c>
-      <c r="BV9" s="3" t="s">
+      <c r="BV9" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="BW9" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="BW9" s="14" t="s">
+      <c r="BX9" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="BX9" s="8" t="s">
+      <c r="BY9" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="BY9" t="s">
+      <c r="BZ9" t="s">
         <v>340</v>
       </c>
-      <c r="BZ9" t="s">
+      <c r="CA9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:78">
+    <row r="10" spans="1:79">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11888,23 +12401,26 @@
       <c r="BU10" t="s">
         <v>75</v>
       </c>
-      <c r="BV10" s="3" t="s">
+      <c r="BV10" s="18" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BW10" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="BW10" s="14" t="s">
+      <c r="BX10" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="BX10" s="8" t="s">
+      <c r="BY10" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="BY10" t="s">
+      <c r="BZ10" t="s">
         <v>76</v>
       </c>
-      <c r="BZ10" t="s">
+      <c r="CA10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:78">
+    <row r="11" spans="1:79">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11966,7 +12482,7 @@
         <v>83</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>1370</v>
+        <v>1562</v>
       </c>
       <c r="V11" s="19" t="s">
         <v>1386</v>
@@ -12038,7 +12554,7 @@
         <v>364</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>1490</v>
+        <v>1575</v>
       </c>
       <c r="AU11" s="5" t="s">
         <v>365</v>
@@ -12050,7 +12566,7 @@
         <v>366</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>1504</v>
+        <v>1579</v>
       </c>
       <c r="AY11" s="5" t="s">
         <v>367</v>
@@ -12121,23 +12637,26 @@
       <c r="BU11" t="s">
         <v>113</v>
       </c>
-      <c r="BV11" s="3" t="s">
+      <c r="BV11" s="18" t="s">
+        <v>1582</v>
+      </c>
+      <c r="BW11" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="BW11" s="14" t="s">
+      <c r="BX11" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="BX11" s="8" t="s">
+      <c r="BY11" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="BY11" t="s">
+      <c r="BZ11" t="s">
         <v>114</v>
       </c>
-      <c r="BZ11" t="s">
+      <c r="CA11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:78">
+    <row r="12" spans="1:79">
       <c r="A12">
         <v>3</v>
       </c>
@@ -12354,23 +12873,26 @@
       <c r="BU12" t="s">
         <v>151</v>
       </c>
-      <c r="BV12" s="3" t="s">
+      <c r="BV12" s="18" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BW12" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="BW12" s="14" t="s">
+      <c r="BX12" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="BX12" s="8" t="s">
+      <c r="BY12" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="BY12" t="s">
+      <c r="BZ12" t="s">
         <v>152</v>
       </c>
-      <c r="BZ12" t="s">
+      <c r="CA12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:78">
+    <row r="13" spans="1:79">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12587,23 +13109,26 @@
       <c r="BU13" t="s">
         <v>189</v>
       </c>
-      <c r="BV13" s="3" t="s">
+      <c r="BV13" s="18" t="s">
+        <v>1584</v>
+      </c>
+      <c r="BW13" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="BW13" s="14" t="s">
+      <c r="BX13" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="BX13" s="8" t="s">
+      <c r="BY13" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="BY13" t="s">
+      <c r="BZ13" t="s">
         <v>190</v>
       </c>
-      <c r="BZ13" t="s">
+      <c r="CA13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:78">
+    <row r="14" spans="1:79">
       <c r="A14">
         <v>3</v>
       </c>
@@ -12820,23 +13345,26 @@
       <c r="BU14" t="s">
         <v>227</v>
       </c>
-      <c r="BV14" s="3" t="s">
+      <c r="BV14" s="18" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BW14" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="BW14" s="14" t="s">
+      <c r="BX14" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="BX14" s="8" t="s">
+      <c r="BY14" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="BY14" t="s">
+      <c r="BZ14" t="s">
         <v>228</v>
       </c>
-      <c r="BZ14" t="s">
+      <c r="CA14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:78">
+    <row r="15" spans="1:79">
       <c r="A15">
         <v>3</v>
       </c>
@@ -13053,23 +13581,26 @@
       <c r="BU15" t="s">
         <v>264</v>
       </c>
-      <c r="BV15" s="3" t="s">
+      <c r="BV15" s="18" t="s">
+        <v>1586</v>
+      </c>
+      <c r="BW15" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="BW15" s="14" t="s">
+      <c r="BX15" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="BX15" s="8" t="s">
+      <c r="BY15" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="BY15" t="s">
+      <c r="BZ15" t="s">
         <v>265</v>
       </c>
-      <c r="BZ15" t="s">
+      <c r="CA15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:78">
+    <row r="16" spans="1:79">
       <c r="A16">
         <v>3</v>
       </c>
@@ -13170,7 +13701,7 @@
         <v>450</v>
       </c>
       <c r="AI16" s="20" t="s">
-        <v>1424</v>
+        <v>1568</v>
       </c>
       <c r="AJ16" s="18" t="s">
         <v>1433</v>
@@ -13185,7 +13716,7 @@
         <v>452</v>
       </c>
       <c r="AN16" s="20" t="s">
-        <v>1460</v>
+        <v>1571</v>
       </c>
       <c r="AO16" s="18" t="s">
         <v>1442</v>
@@ -13203,7 +13734,7 @@
         <v>454</v>
       </c>
       <c r="AT16" s="20" t="s">
-        <v>1495</v>
+        <v>1574</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>455</v>
@@ -13215,7 +13746,7 @@
         <v>456</v>
       </c>
       <c r="AX16" s="20" t="s">
-        <v>1500</v>
+        <v>1580</v>
       </c>
       <c r="AY16" s="4" t="s">
         <v>457</v>
@@ -13286,23 +13817,26 @@
       <c r="BU16" t="s">
         <v>302</v>
       </c>
-      <c r="BV16" s="3" t="s">
+      <c r="BV16" s="18" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BW16" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BW16" s="14" t="s">
+      <c r="BX16" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="BX16" s="8" t="s">
+      <c r="BY16" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="BY16" t="s">
+      <c r="BZ16" t="s">
         <v>303</v>
       </c>
-      <c r="BZ16" t="s">
+      <c r="CA16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:78">
+    <row r="17" spans="1:79">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13436,7 +13970,7 @@
         <v>472</v>
       </c>
       <c r="AT17" s="20" t="s">
-        <v>1496</v>
+        <v>1576</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>473</v>
@@ -13519,23 +14053,26 @@
       <c r="BU17" t="s">
         <v>339</v>
       </c>
-      <c r="BV17" s="3" t="s">
+      <c r="BV17" s="18" t="s">
+        <v>1588</v>
+      </c>
+      <c r="BW17" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="BW17" s="14" t="s">
+      <c r="BX17" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="BX17" s="8" t="s">
+      <c r="BY17" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="BY17" t="s">
+      <c r="BZ17" t="s">
         <v>340</v>
       </c>
-      <c r="BZ17" t="s">
+      <c r="CA17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:78">
+    <row r="18" spans="1:79">
       <c r="A18">
         <v>5</v>
       </c>
@@ -13720,23 +14257,23 @@
       <c r="BU18" t="s">
         <v>524</v>
       </c>
-      <c r="BV18" s="3" t="s">
+      <c r="BW18" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BW18" s="14" t="s">
+      <c r="BX18" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="BX18" s="8" t="s">
+      <c r="BY18" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="BY18" t="s">
+      <c r="BZ18" t="s">
         <v>525</v>
       </c>
-      <c r="BZ18" t="s">
+      <c r="CA18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:78">
+    <row r="19" spans="1:79">
       <c r="A19">
         <v>5</v>
       </c>
@@ -13921,23 +14458,23 @@
       <c r="BU19" t="s">
         <v>561</v>
       </c>
-      <c r="BV19" s="3" t="s">
+      <c r="BW19" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="BW19" s="14" t="s">
+      <c r="BX19" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="BX19" s="8" t="s">
+      <c r="BY19" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="BY19" t="s">
+      <c r="BZ19" t="s">
         <v>562</v>
       </c>
-      <c r="BZ19" t="s">
+      <c r="CA19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:78">
+    <row r="20" spans="1:79">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14122,23 +14659,23 @@
       <c r="BU20" t="s">
         <v>598</v>
       </c>
-      <c r="BV20" s="3" t="s">
+      <c r="BW20" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BW20" s="14" t="s">
+      <c r="BX20" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="BX20" s="8" t="s">
+      <c r="BY20" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="BY20" t="s">
+      <c r="BZ20" t="s">
         <v>599</v>
       </c>
-      <c r="BZ20" t="s">
+      <c r="CA20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:78">
+    <row r="21" spans="1:79">
       <c r="A21">
         <v>5</v>
       </c>
@@ -14313,23 +14850,23 @@
       <c r="BU21" t="s">
         <v>635</v>
       </c>
-      <c r="BV21" s="3" t="s">
+      <c r="BW21" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="BW21" s="14" t="s">
+      <c r="BX21" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="BX21" s="8" t="s">
+      <c r="BY21" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="BY21" t="s">
+      <c r="BZ21" t="s">
         <v>636</v>
       </c>
-      <c r="BZ21" t="s">
+      <c r="CA21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:78">
+    <row r="22" spans="1:79">
       <c r="A22">
         <v>5</v>
       </c>
@@ -14504,23 +15041,23 @@
       <c r="BU22" t="s">
         <v>672</v>
       </c>
-      <c r="BV22" s="3" t="s">
+      <c r="BW22" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="BW22" s="14" t="s">
+      <c r="BX22" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="BX22" s="8" t="s">
+      <c r="BY22" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="BY22" t="s">
+      <c r="BZ22" t="s">
         <v>673</v>
       </c>
-      <c r="BZ22" t="s">
+      <c r="CA22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:78">
+    <row r="23" spans="1:79">
       <c r="A23">
         <v>5</v>
       </c>
@@ -14695,23 +15232,23 @@
       <c r="BU23" t="s">
         <v>709</v>
       </c>
-      <c r="BV23" s="3" t="s">
+      <c r="BW23" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="BW23" s="14" t="s">
+      <c r="BX23" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="BX23" s="8" t="s">
+      <c r="BY23" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="BY23" t="s">
+      <c r="BZ23" t="s">
         <v>710</v>
       </c>
-      <c r="BZ23" t="s">
+      <c r="CA23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:78">
+    <row r="24" spans="1:79">
       <c r="A24">
         <v>5</v>
       </c>
@@ -14886,23 +15423,23 @@
       <c r="BU24" t="s">
         <v>746</v>
       </c>
-      <c r="BV24" s="3" t="s">
+      <c r="BW24" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="BW24" s="14" t="s">
+      <c r="BX24" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="BX24" s="8" t="s">
+      <c r="BY24" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="BY24" t="s">
+      <c r="BZ24" t="s">
         <v>747</v>
       </c>
-      <c r="BZ24" t="s">
+      <c r="CA24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:78">
+    <row r="25" spans="1:79">
       <c r="A25">
         <v>5</v>
       </c>
@@ -15077,23 +15614,23 @@
       <c r="BU25" t="s">
         <v>776</v>
       </c>
-      <c r="BV25" s="3" t="s">
+      <c r="BW25" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="BW25" s="14" t="s">
+      <c r="BX25" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="BX25" s="8" t="s">
+      <c r="BY25" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="BY25" t="s">
+      <c r="BZ25" t="s">
         <v>777</v>
       </c>
-      <c r="BZ25" t="s">
+      <c r="CA25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:78">
+    <row r="26" spans="1:79">
       <c r="A26">
         <v>6</v>
       </c>
@@ -15278,23 +15815,23 @@
       <c r="BU26" t="s">
         <v>524</v>
       </c>
-      <c r="BV26" s="3" t="s">
+      <c r="BW26" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BW26" s="14" t="s">
+      <c r="BX26" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="BX26" s="8" t="s">
+      <c r="BY26" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="BY26" t="s">
+      <c r="BZ26" t="s">
         <v>525</v>
       </c>
-      <c r="BZ26" t="s">
+      <c r="CA26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:78">
+    <row r="27" spans="1:79">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15479,23 +16016,23 @@
       <c r="BU27" t="s">
         <v>561</v>
       </c>
-      <c r="BV27" s="3" t="s">
+      <c r="BW27" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="BW27" s="14" t="s">
+      <c r="BX27" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="BX27" s="8" t="s">
+      <c r="BY27" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="BY27" t="s">
+      <c r="BZ27" t="s">
         <v>562</v>
       </c>
-      <c r="BZ27" t="s">
+      <c r="CA27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:78">
+    <row r="28" spans="1:79">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15680,23 +16217,23 @@
       <c r="BU28" t="s">
         <v>598</v>
       </c>
-      <c r="BV28" s="3" t="s">
+      <c r="BW28" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BW28" s="14" t="s">
+      <c r="BX28" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="BX28" s="8" t="s">
+      <c r="BY28" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="BY28" t="s">
+      <c r="BZ28" t="s">
         <v>599</v>
       </c>
-      <c r="BZ28" t="s">
+      <c r="CA28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:78">
+    <row r="29" spans="1:79">
       <c r="A29">
         <v>6</v>
       </c>
@@ -15871,23 +16408,23 @@
       <c r="BU29" t="s">
         <v>635</v>
       </c>
-      <c r="BV29" s="3" t="s">
+      <c r="BW29" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="BW29" s="14" t="s">
+      <c r="BX29" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="BX29" s="8" t="s">
+      <c r="BY29" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="BY29" t="s">
+      <c r="BZ29" t="s">
         <v>636</v>
       </c>
-      <c r="BZ29" t="s">
+      <c r="CA29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:78">
+    <row r="30" spans="1:79">
       <c r="A30">
         <v>6</v>
       </c>
@@ -16062,23 +16599,23 @@
       <c r="BU30" t="s">
         <v>672</v>
       </c>
-      <c r="BV30" s="3" t="s">
+      <c r="BW30" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="BW30" s="14" t="s">
+      <c r="BX30" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="BX30" s="8" t="s">
+      <c r="BY30" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="BY30" t="s">
+      <c r="BZ30" t="s">
         <v>673</v>
       </c>
-      <c r="BZ30" t="s">
+      <c r="CA30" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:78">
+    <row r="31" spans="1:79">
       <c r="A31">
         <v>6</v>
       </c>
@@ -16253,23 +16790,23 @@
       <c r="BU31" t="s">
         <v>709</v>
       </c>
-      <c r="BV31" s="3" t="s">
+      <c r="BW31" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="BW31" s="14" t="s">
+      <c r="BX31" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="BX31" s="8" t="s">
+      <c r="BY31" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="BY31" t="s">
+      <c r="BZ31" t="s">
         <v>710</v>
       </c>
-      <c r="BZ31" t="s">
+      <c r="CA31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:78">
+    <row r="32" spans="1:79">
       <c r="A32">
         <v>6</v>
       </c>
@@ -16444,23 +16981,23 @@
       <c r="BU32" t="s">
         <v>746</v>
       </c>
-      <c r="BV32" s="3" t="s">
+      <c r="BW32" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="BW32" s="14" t="s">
+      <c r="BX32" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="BX32" s="8" t="s">
+      <c r="BY32" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="BY32" t="s">
+      <c r="BZ32" t="s">
         <v>747</v>
       </c>
-      <c r="BZ32" t="s">
+      <c r="CA32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:78">
+    <row r="33" spans="1:79">
       <c r="A33">
         <v>6</v>
       </c>
@@ -16635,25 +17172,28 @@
       <c r="BU33" t="s">
         <v>776</v>
       </c>
-      <c r="BV33" s="3" t="s">
+      <c r="BW33" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="BW33" s="14" t="s">
+      <c r="BX33" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="BX33" s="8" t="s">
+      <c r="BY33" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="BY33" t="s">
+      <c r="BZ33" t="s">
         <v>777</v>
       </c>
-      <c r="BZ33" t="s">
+      <c r="CA33" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:78">
+    <row r="37" spans="1:79">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
+      <c r="J37" t="s">
+        <v>1547</v>
+      </c>
       <c r="K37" s="13" t="s">
         <v>1321</v>
       </c>
@@ -16661,9 +17201,12 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="38" spans="1:78">
+    <row r="38" spans="1:79">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
+      <c r="J38" t="s">
+        <v>1589</v>
+      </c>
       <c r="K38" s="13" t="s">
         <v>1316</v>
       </c>
@@ -16671,9 +17214,12 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="39" spans="1:78">
+    <row r="39" spans="1:79">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
+      <c r="J39" t="s">
+        <v>1590</v>
+      </c>
       <c r="K39" s="13" t="s">
         <v>1317</v>
       </c>
@@ -16681,9 +17227,12 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="40" spans="1:78">
+    <row r="40" spans="1:79">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
+      <c r="J40" t="s">
+        <v>1591</v>
+      </c>
       <c r="K40" s="13" t="s">
         <v>1318</v>
       </c>
@@ -16691,9 +17240,12 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="41" spans="1:78">
+    <row r="41" spans="1:79">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
+      <c r="J41" t="s">
+        <v>1592</v>
+      </c>
       <c r="K41" s="13" t="s">
         <v>1319</v>
       </c>
@@ -16701,9 +17253,12 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="42" spans="1:78">
+    <row r="42" spans="1:79">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
+      <c r="J42" t="s">
+        <v>1593</v>
+      </c>
       <c r="K42" s="13" t="s">
         <v>1320</v>
       </c>
@@ -16711,15 +17266,15 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="43" spans="1:78">
+    <row r="43" spans="1:79">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:78">
+    <row r="44" spans="1:79">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:78">
+    <row r="45" spans="1:79">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="K45" s="13" t="s">
@@ -16729,7 +17284,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="46" spans="1:78">
+    <row r="46" spans="1:79">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="K46" s="13" t="s">
@@ -16739,7 +17294,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="47" spans="1:78">
+    <row r="47" spans="1:79">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="K47" s="13" t="s">
@@ -16749,7 +17304,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="48" spans="1:78">
+    <row r="48" spans="1:79">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="K48" s="13" t="s">
@@ -16786,16 +17341,16 @@
   </sheetData>
   <autoFilter ref="A1:AF33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF51"/>
+  <dimension ref="A1:BG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="H1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -16828,12 +17383,12 @@
     <col min="40" max="40" width="38.5" customWidth="1"/>
     <col min="41" max="41" width="41.6640625" style="18" customWidth="1"/>
     <col min="42" max="53" width="10.83203125" customWidth="1"/>
-    <col min="54" max="54" width="26" customWidth="1"/>
-    <col min="55" max="55" width="29.83203125" customWidth="1"/>
-    <col min="56" max="56" width="24.1640625" customWidth="1"/>
+    <col min="54" max="55" width="26" customWidth="1"/>
+    <col min="56" max="56" width="29.83203125" customWidth="1"/>
+    <col min="57" max="57" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="15" customFormat="1">
+    <row r="1" spans="1:59" s="15" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -16994,19 +17549,22 @@
         <v>1281</v>
       </c>
       <c r="BC1" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="BD1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BE1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:59">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17166,20 +17724,21 @@
       <c r="BB2" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="BC2" s="14" t="s">
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BE2" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>76</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:59">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17339,20 +17898,21 @@
       <c r="BB3" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="BC3" s="14" t="s">
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="BD3" s="8" t="s">
+      <c r="BE3" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>114</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:59">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17512,20 +18072,21 @@
       <c r="BB4" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="BC4" s="14" t="s">
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="BD4" s="8" t="s">
+      <c r="BE4" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>152</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:59">
       <c r="A5">
         <v>1</v>
       </c>
@@ -17685,20 +18246,21 @@
       <c r="BB5" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="BC5" s="14" t="s">
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="BD5" s="8" t="s">
+      <c r="BE5" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>190</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:59">
       <c r="A6">
         <v>1</v>
       </c>
@@ -17858,20 +18420,21 @@
       <c r="BB6" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="BC6" s="14" t="s">
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="BD6" s="8" t="s">
+      <c r="BE6" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>228</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:59">
       <c r="A7">
         <v>1</v>
       </c>
@@ -18031,20 +18594,21 @@
       <c r="BB7" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="BC7" s="14" t="s">
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="BD7" s="8" t="s">
+      <c r="BE7" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>265</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:59">
       <c r="A8">
         <v>1</v>
       </c>
@@ -18204,20 +18768,21 @@
       <c r="BB8" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BC8" s="14" t="s">
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="BD8" s="8" t="s">
+      <c r="BE8" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>303</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:59">
       <c r="A9">
         <v>1</v>
       </c>
@@ -18377,20 +18942,21 @@
       <c r="BB9" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="BC9" s="14" t="s">
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="BD9" s="8" t="s">
+      <c r="BE9" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>340</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BG9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:59">
       <c r="A10">
         <v>3</v>
       </c>
@@ -18550,20 +19116,21 @@
       <c r="BB10" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="BC10" s="14" t="s">
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="14" t="s">
         <v>1283</v>
       </c>
-      <c r="BD10" s="8" t="s">
+      <c r="BE10" s="8" t="s">
         <v>1282</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>76</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:59">
       <c r="A11">
         <v>3</v>
       </c>
@@ -18723,20 +19290,21 @@
       <c r="BB11" s="3" t="s">
         <v>1266</v>
       </c>
-      <c r="BC11" s="14" t="s">
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="14" t="s">
         <v>1285</v>
       </c>
-      <c r="BD11" s="8" t="s">
+      <c r="BE11" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>114</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:59">
       <c r="A12">
         <v>3</v>
       </c>
@@ -18896,20 +19464,21 @@
       <c r="BB12" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="BC12" s="14" t="s">
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="14" t="s">
         <v>1286</v>
       </c>
-      <c r="BD12" s="8" t="s">
+      <c r="BE12" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>152</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:59">
       <c r="A13">
         <v>3</v>
       </c>
@@ -19069,20 +19638,21 @@
       <c r="BB13" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="BC13" s="14" t="s">
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="14" t="s">
         <v>1288</v>
       </c>
-      <c r="BD13" s="8" t="s">
+      <c r="BE13" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>190</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:59">
       <c r="A14">
         <v>3</v>
       </c>
@@ -19242,20 +19812,21 @@
       <c r="BB14" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="BC14" s="14" t="s">
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="14" t="s">
         <v>1289</v>
       </c>
-      <c r="BD14" s="8" t="s">
+      <c r="BE14" s="8" t="s">
         <v>1302</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>228</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BG14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:59">
       <c r="A15">
         <v>3</v>
       </c>
@@ -19415,20 +19986,21 @@
       <c r="BB15" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="BC15" s="14" t="s">
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="14" t="s">
         <v>1290</v>
       </c>
-      <c r="BD15" s="8" t="s">
+      <c r="BE15" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>265</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BG15" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:59">
       <c r="A16">
         <v>3</v>
       </c>
@@ -19588,20 +20160,21 @@
       <c r="BB16" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="BC16" s="14" t="s">
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="14" t="s">
         <v>1291</v>
       </c>
-      <c r="BD16" s="8" t="s">
+      <c r="BE16" s="8" t="s">
         <v>1304</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>303</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:59">
       <c r="A17">
         <v>3</v>
       </c>
@@ -19761,20 +20334,21 @@
       <c r="BB17" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="BC17" s="14" t="s">
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="14" t="s">
         <v>1292</v>
       </c>
-      <c r="BD17" s="8" t="s">
+      <c r="BE17" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>340</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:59">
       <c r="A18">
         <v>5</v>
       </c>
@@ -19902,20 +20476,21 @@
       <c r="BB18" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BC18" s="14" t="s">
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="BD18" s="8" t="s">
+      <c r="BE18" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>525</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BG18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:59">
       <c r="A19">
         <v>5</v>
       </c>
@@ -20043,20 +20618,21 @@
       <c r="BB19" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="BC19" s="14" t="s">
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="BD19" s="8" t="s">
+      <c r="BE19" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>562</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BG19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:59">
       <c r="A20">
         <v>5</v>
       </c>
@@ -20184,20 +20760,21 @@
       <c r="BB20" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BC20" s="14" t="s">
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="BD20" s="8" t="s">
+      <c r="BE20" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BF20" t="s">
         <v>599</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BG20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:59">
       <c r="A21">
         <v>5</v>
       </c>
@@ -20315,20 +20892,21 @@
       <c r="BB21" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="BC21" s="14" t="s">
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="BD21" s="8" t="s">
+      <c r="BE21" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BF21" t="s">
         <v>636</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BG21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:59">
       <c r="A22">
         <v>5</v>
       </c>
@@ -20446,20 +21024,21 @@
       <c r="BB22" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="BC22" s="14" t="s">
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="BD22" s="8" t="s">
+      <c r="BE22" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BF22" t="s">
         <v>673</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BG22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:59">
       <c r="A23">
         <v>5</v>
       </c>
@@ -20577,20 +21156,21 @@
       <c r="BB23" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="BC23" s="14" t="s">
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="BD23" s="8" t="s">
+      <c r="BE23" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BF23" t="s">
         <v>710</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BG23" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:59">
       <c r="A24">
         <v>5</v>
       </c>
@@ -20708,20 +21288,21 @@
       <c r="BB24" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="BC24" s="14" t="s">
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="BD24" s="8" t="s">
+      <c r="BE24" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BF24" t="s">
         <v>747</v>
       </c>
-      <c r="BF24" t="s">
+      <c r="BG24" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:59">
       <c r="A25">
         <v>5</v>
       </c>
@@ -20839,20 +21420,21 @@
       <c r="BB25" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="BC25" s="14" t="s">
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="BD25" s="8" t="s">
+      <c r="BE25" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BF25" t="s">
         <v>777</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BG25" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:59">
       <c r="A26">
         <v>6</v>
       </c>
@@ -20980,20 +21562,21 @@
       <c r="BB26" s="3" t="s">
         <v>1273</v>
       </c>
-      <c r="BC26" s="14" t="s">
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="14" t="s">
         <v>1293</v>
       </c>
-      <c r="BD26" s="8" t="s">
+      <c r="BE26" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>525</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:59">
       <c r="A27">
         <v>6</v>
       </c>
@@ -21121,20 +21704,21 @@
       <c r="BB27" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="BC27" s="14" t="s">
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="14" t="s">
         <v>1294</v>
       </c>
-      <c r="BD27" s="8" t="s">
+      <c r="BE27" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BF27" t="s">
         <v>562</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BG27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:59">
       <c r="A28">
         <v>6</v>
       </c>
@@ -21262,20 +21846,21 @@
       <c r="BB28" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="BC28" s="14" t="s">
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="14" t="s">
         <v>1295</v>
       </c>
-      <c r="BD28" s="8" t="s">
+      <c r="BE28" s="8" t="s">
         <v>1308</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>599</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BG28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:59">
       <c r="A29">
         <v>6</v>
       </c>
@@ -21393,20 +21978,21 @@
       <c r="BB29" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="BC29" s="14" t="s">
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="14" t="s">
         <v>1296</v>
       </c>
-      <c r="BD29" s="8" t="s">
+      <c r="BE29" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BF29" t="s">
         <v>636</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BG29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:59">
       <c r="A30">
         <v>6</v>
       </c>
@@ -21524,20 +22110,21 @@
       <c r="BB30" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="BC30" s="14" t="s">
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="14" t="s">
         <v>1297</v>
       </c>
-      <c r="BD30" s="8" t="s">
+      <c r="BE30" s="8" t="s">
         <v>1310</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BF30" t="s">
         <v>673</v>
       </c>
-      <c r="BF30" t="s">
+      <c r="BG30" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:59">
       <c r="A31">
         <v>6</v>
       </c>
@@ -21655,20 +22242,21 @@
       <c r="BB31" s="3" t="s">
         <v>1278</v>
       </c>
-      <c r="BC31" s="14" t="s">
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="14" t="s">
         <v>1298</v>
       </c>
-      <c r="BD31" s="8" t="s">
+      <c r="BE31" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BF31" t="s">
         <v>710</v>
       </c>
-      <c r="BF31" t="s">
+      <c r="BG31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:59">
       <c r="A32">
         <v>6</v>
       </c>
@@ -21786,20 +22374,21 @@
       <c r="BB32" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="BC32" s="14" t="s">
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="14" t="s">
         <v>1299</v>
       </c>
-      <c r="BD32" s="8" t="s">
+      <c r="BE32" s="8" t="s">
         <v>1312</v>
       </c>
-      <c r="BE32" t="s">
+      <c r="BF32" t="s">
         <v>747</v>
       </c>
-      <c r="BF32" t="s">
+      <c r="BG32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:59">
       <c r="A33">
         <v>6</v>
       </c>
@@ -21917,112 +22506,149 @@
       <c r="BB33" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="BC33" s="14" t="s">
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="14" t="s">
         <v>1300</v>
       </c>
-      <c r="BD33" s="8" t="s">
+      <c r="BE33" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BF33" t="s">
         <v>777</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BG33" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:59">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="K37" s="13" t="s">
         <v>1321</v>
       </c>
+      <c r="L37" s="18" t="s">
+        <v>1547</v>
+      </c>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:59">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="K38" s="13" t="s">
         <v>1316</v>
       </c>
+      <c r="L38" s="18" t="s">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:59">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="K39" s="13" t="s">
         <v>1317</v>
       </c>
+      <c r="L39" s="18" t="s">
+        <v>1549</v>
+      </c>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:59">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="K40" s="13" t="s">
         <v>1318</v>
       </c>
+      <c r="L40" s="18" t="s">
+        <v>1550</v>
+      </c>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:59">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="K41" s="13" t="s">
         <v>1319</v>
       </c>
+      <c r="L41" s="18" t="s">
+        <v>1551</v>
+      </c>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:59">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="K42" s="13" t="s">
         <v>1320</v>
       </c>
+      <c r="L42" s="18" t="s">
+        <v>1552</v>
+      </c>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:59">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" spans="1:59">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" spans="1:59">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="K45" s="13" t="s">
         <v>1322</v>
       </c>
+      <c r="L45" s="18" t="s">
+        <v>1553</v>
+      </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:59">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="K46" s="13" t="s">
         <v>1323</v>
       </c>
+      <c r="L46" s="18" t="s">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" spans="1:59">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="K47" s="13" t="s">
         <v>1324</v>
       </c>
+      <c r="L47" s="18" t="s">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" spans="1:59">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="K48" s="13" t="s">
         <v>1325</v>
       </c>
+      <c r="L48" s="18" t="s">
+        <v>1557</v>
+      </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="K49" s="13" t="s">
         <v>1326</v>
       </c>
+      <c r="L49" s="18" t="s">
+        <v>1558</v>
+      </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="K50" s="13" t="s">
         <v>1327</v>
       </c>
+      <c r="L50" s="18" t="s">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
     </row>

--- a/MPP Chinese translation.xlsx
+++ b/MPP Chinese translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kailee\Documents\GitHub\mannerpathChinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B533D3A0-A681-41CC-A93F-A6D42C873CAE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E2E0C-4647-4D3A-8936-30F9AB231B68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MPP_videos!$A$1:$X$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MPP_videos (2)'!$A$1:$AF$33</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="1600">
   <si>
     <t>List</t>
   </si>
@@ -9423,6 +9423,24 @@
   </si>
   <si>
     <t>现在让我们看看</t>
+  </si>
+  <si>
+    <t>小狗有一根骨头</t>
+  </si>
+  <si>
+    <t>哪只狗有骨头</t>
+  </si>
+  <si>
+    <t>骨头在哪儿</t>
+  </si>
+  <si>
+    <t>这只狗有gui2</t>
+  </si>
+  <si>
+    <t>哪只狗有gui2</t>
+  </si>
+  <si>
+    <t>gui2在哪里</t>
   </si>
 </sst>
 </file>
@@ -9999,8 +10017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DFD1F-345F-4526-807E-6A916CCFBA00}">
   <dimension ref="A1:CA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H29" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -14143,6 +14161,7 @@
       <c r="Z18" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="AA18"/>
       <c r="AC18" s="2" t="s">
         <v>498</v>
       </c>
@@ -14344,6 +14363,7 @@
       <c r="Z19" s="1" t="s">
         <v>534</v>
       </c>
+      <c r="AA19"/>
       <c r="AC19" s="2" t="s">
         <v>535</v>
       </c>
@@ -14545,6 +14565,7 @@
       <c r="Z20" s="1" t="s">
         <v>571</v>
       </c>
+      <c r="AA20"/>
       <c r="AC20" s="2" t="s">
         <v>572</v>
       </c>
@@ -14742,6 +14763,7 @@
       <c r="Z21" s="1" t="s">
         <v>608</v>
       </c>
+      <c r="AA21"/>
       <c r="AC21" s="2" t="s">
         <v>609</v>
       </c>
@@ -14933,6 +14955,7 @@
       <c r="Z22" s="1" t="s">
         <v>645</v>
       </c>
+      <c r="AA22"/>
       <c r="AC22" s="2" t="s">
         <v>646</v>
       </c>
@@ -15124,6 +15147,7 @@
       <c r="Z23" s="1" t="s">
         <v>682</v>
       </c>
+      <c r="AA23"/>
       <c r="AC23" s="2" t="s">
         <v>683</v>
       </c>
@@ -17277,6 +17301,9 @@
     <row r="45" spans="1:79">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
+      <c r="J45" t="s">
+        <v>1594</v>
+      </c>
       <c r="K45" s="13" t="s">
         <v>1322</v>
       </c>
@@ -17287,6 +17314,9 @@
     <row r="46" spans="1:79">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
+      <c r="J46" t="s">
+        <v>1595</v>
+      </c>
       <c r="K46" s="13" t="s">
         <v>1323</v>
       </c>
@@ -17297,6 +17327,9 @@
     <row r="47" spans="1:79">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
+      <c r="J47" t="s">
+        <v>1596</v>
+      </c>
       <c r="K47" s="13" t="s">
         <v>1324</v>
       </c>
@@ -17307,6 +17340,9 @@
     <row r="48" spans="1:79">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
+      <c r="J48" t="s">
+        <v>1597</v>
+      </c>
       <c r="K48" s="13" t="s">
         <v>1325</v>
       </c>
@@ -17317,6 +17353,9 @@
     <row r="49" spans="1:12">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
+      <c r="J49" t="s">
+        <v>1598</v>
+      </c>
       <c r="K49" s="13" t="s">
         <v>1326</v>
       </c>
@@ -17327,6 +17366,9 @@
     <row r="50" spans="1:12">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
+      <c r="J50" t="s">
+        <v>1599</v>
+      </c>
       <c r="K50" s="13" t="s">
         <v>1327</v>
       </c>

--- a/MPP Chinese translation.xlsx
+++ b/MPP Chinese translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kailee\Documents\GitHub\mannerpathChinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512E2E0C-4647-4D3A-8936-30F9AB231B68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834ABCE0-ACDD-4F07-8A0B-388DA2F4DD3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10017,8 +10017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DFD1F-345F-4526-807E-6A916CCFBA00}">
   <dimension ref="A1:CA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45:K50"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>

--- a/MPP Chinese translation.xlsx
+++ b/MPP Chinese translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kailee\Documents\GitHub\mannerpathChinese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834ABCE0-ACDD-4F07-8A0B-388DA2F4DD3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321DE2C-C0A2-4685-A42E-4C7B0696B6AF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="1607">
   <si>
     <t>List</t>
   </si>
@@ -9085,8 +9085,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>怪兽要从圆锥体上lia3</t>
+    <t>哪一个是jiong3?</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从邮箱中jiong3</t>
     </r>
     <r>
       <rPr>
@@ -9096,8 +9099,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>来</t>
+    </r>
+  </si>
+  <si>
+    <t>怪兽要在飞船周围lia3</t>
+  </si>
+  <si>
+    <t>哪一个是lia3?</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从书上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>去</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从邮箱中jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 了</t>
+    </r>
+  </si>
+  <si>
+    <t>怪兽在飞船周围lia3了</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从书上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -9110,11 +9177,8 @@
     </r>
   </si>
   <si>
-    <t>哪一个是jiong3?</t>
-  </si>
-  <si>
-    <r>
-      <t>怪兽要从邮箱中jiong3</t>
+    <r>
+      <t>怪兽要在凳子前面jiong3</t>
     </r>
     <r>
       <rPr>
@@ -9128,14 +9192,8 @@
     </r>
   </si>
   <si>
-    <t>怪兽要在飞船周围lia3</t>
-  </si>
-  <si>
-    <t>哪一个是lia3?</t>
-  </si>
-  <si>
-    <r>
-      <t>怪兽要从书上lia3</t>
+    <r>
+      <t>怪兽要朝小狗lia3</t>
     </r>
     <r>
       <rPr>
@@ -9150,7 +9208,7 @@
   </si>
   <si>
     <r>
-      <t>怪兽从邮箱中jiong3</t>
+      <t>怪兽要从轮胎上lia3</t>
     </r>
     <r>
       <rPr>
@@ -9160,8 +9218,112 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>去</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要jiong3向一头牛/向一头牛jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>来</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要在凳子前面han4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽在凳子前面jiong3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">来 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽朝小狗lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽jiong3向一头牛/向一头牛jiong4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -9174,11 +9336,8 @@
     </r>
   </si>
   <si>
-    <t>怪兽在飞船周围lia3了</t>
-  </si>
-  <si>
-    <r>
-      <t>怪兽从书上lia3</t>
+    <r>
+      <t>怪兽从轮胎上lia3</t>
     </r>
     <r>
       <rPr>
@@ -9202,8 +9361,65 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>怪兽要在凳子前面jiong3</t>
+    <t>让我们找找Kuo2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Jiong3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Liao2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Pan3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找mou2在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Suo3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找Lia3在哪里</t>
+  </si>
+  <si>
+    <t>让我们找找han4在哪里</t>
+  </si>
+  <si>
+    <t>你看到那个了吗？</t>
+  </si>
+  <si>
+    <t>让我们再看一会儿</t>
+  </si>
+  <si>
+    <t>准备好啦</t>
+  </si>
+  <si>
+    <t>真棒</t>
+  </si>
+  <si>
+    <t>现在让我们看看</t>
+  </si>
+  <si>
+    <t>小狗有一根骨头</t>
+  </si>
+  <si>
+    <t>哪只狗有骨头</t>
+  </si>
+  <si>
+    <t>骨头在哪儿</t>
+  </si>
+  <si>
+    <t>这只狗有gui2</t>
+  </si>
+  <si>
+    <t>哪只狗有gui2</t>
+  </si>
+  <si>
+    <t>gui2在哪里</t>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从花丛中suo3</t>
     </r>
     <r>
       <rPr>
@@ -9215,10 +9431,20 @@
       </rPr>
       <t>来</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽要朝小狗lia3</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从树林中mou2</t>
     </r>
     <r>
       <rPr>
@@ -9228,12 +9454,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从圆锥体上lia3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>去</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽要从轮胎上lia3</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽在大象前面han4</t>
     </r>
     <r>
       <rPr>
@@ -9245,10 +9505,20 @@
       </rPr>
       <t>去</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽要jiong3向一头牛/向一头牛jiong3</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从树林中mou2</t>
     </r>
     <r>
       <rPr>
@@ -9260,10 +9530,20 @@
       </rPr>
       <t>来</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽要在凳子前面han4</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从圆锥体上lia1</t>
     </r>
     <r>
       <rPr>
@@ -9275,10 +9555,20 @@
       </rPr>
       <t>去</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽在凳子前面jiong3</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽要从跷跷板中间liao2</t>
     </r>
     <r>
       <rPr>
@@ -9288,16 +9578,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">来 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了</t>
+      <t>来</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>怪兽从跷跷板中间liao2</t>
     </r>
     <r>
       <rPr>
@@ -9307,140 +9593,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽朝小狗lia3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 了</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽jiong3向一头牛/向一头牛jiong4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 了</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>怪兽从轮胎上lia3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了</t>
-    </r>
-  </si>
-  <si>
-    <t>让我们找找Kuo2在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找Jiong3在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找Liao2在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找Pan3在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找mou2在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找Suo3在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找Lia3在哪里</t>
-  </si>
-  <si>
-    <t>让我们找找han4在哪里</t>
-  </si>
-  <si>
-    <t>你看到那个了吗？</t>
-  </si>
-  <si>
-    <t>让我们再看一会儿</t>
-  </si>
-  <si>
-    <t>准备好啦</t>
-  </si>
-  <si>
-    <t>真棒</t>
-  </si>
-  <si>
-    <t>现在让我们看看</t>
-  </si>
-  <si>
-    <t>小狗有一根骨头</t>
-  </si>
-  <si>
-    <t>哪只狗有骨头</t>
-  </si>
-  <si>
-    <t>骨头在哪儿</t>
-  </si>
-  <si>
-    <t>这只狗有gui2</t>
-  </si>
-  <si>
-    <t>哪只狗有gui2</t>
-  </si>
-  <si>
-    <t>gui2在哪里</t>
   </si>
 </sst>
 </file>
@@ -10017,8 +10181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DFD1F-345F-4526-807E-6A916CCFBA00}">
   <dimension ref="A1:CA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" topLeftCell="AS2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -10532,7 +10696,7 @@
         <v>75</v>
       </c>
       <c r="BV2" s="18" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="BW2" s="3" t="s">
         <v>1265</v>
@@ -10630,7 +10794,7 @@
         <v>86</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="AB3" s="18" t="s">
         <v>1398</v>
@@ -10651,7 +10815,7 @@
         <v>90</v>
       </c>
       <c r="AI3" s="19" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="AJ3" s="18" t="s">
         <v>1428</v>
@@ -10666,7 +10830,7 @@
         <v>92</v>
       </c>
       <c r="AN3" s="19" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="AO3" s="18" t="s">
         <v>1453</v>
@@ -10684,7 +10848,7 @@
         <v>95</v>
       </c>
       <c r="AT3" s="19" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="AU3" s="5" t="s">
         <v>96</v>
@@ -10696,7 +10860,7 @@
         <v>97</v>
       </c>
       <c r="AX3" s="19" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="AY3" s="5" t="s">
         <v>98</v>
@@ -10768,7 +10932,7 @@
         <v>113</v>
       </c>
       <c r="BV3" s="18" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="BW3" s="3" t="s">
         <v>1266</v>
@@ -10920,7 +11084,7 @@
         <v>133</v>
       </c>
       <c r="AT4" s="19" t="s">
-        <v>1476</v>
+        <v>1605</v>
       </c>
       <c r="AU4" s="5" t="s">
         <v>134</v>
@@ -10932,7 +11096,7 @@
         <v>135</v>
       </c>
       <c r="AX4" s="19" t="s">
-        <v>1511</v>
+        <v>1606</v>
       </c>
       <c r="AY4" s="5" t="s">
         <v>136</v>
@@ -11004,7 +11168,7 @@
         <v>151</v>
       </c>
       <c r="BV4" s="18" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="BW4" s="3" t="s">
         <v>1267</v>
@@ -11240,7 +11404,7 @@
         <v>189</v>
       </c>
       <c r="BV5" s="18" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="BW5" s="3" t="s">
         <v>1268</v>
@@ -11320,7 +11484,7 @@
         <v>197</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>1367</v>
+        <v>1600</v>
       </c>
       <c r="V6" s="19" t="s">
         <v>1390</v>
@@ -11476,7 +11640,7 @@
         <v>227</v>
       </c>
       <c r="BV6" s="18" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="BW6" s="3" t="s">
         <v>1269</v>
@@ -11556,7 +11720,7 @@
         <v>235</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>1369</v>
+        <v>1599</v>
       </c>
       <c r="V7" s="19" t="s">
         <v>1391</v>
@@ -11712,7 +11876,7 @@
         <v>264</v>
       </c>
       <c r="BV7" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="BW7" s="3" t="s">
         <v>1270</v>
@@ -11792,7 +11956,7 @@
         <v>272</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>1563</v>
+        <v>1601</v>
       </c>
       <c r="V8" s="19" t="s">
         <v>1392</v>
@@ -11810,7 +11974,7 @@
         <v>275</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="AB8" s="18" t="s">
         <v>1405</v>
@@ -11831,7 +11995,7 @@
         <v>279</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="AJ8" s="18" t="s">
         <v>1430</v>
@@ -11846,7 +12010,7 @@
         <v>281</v>
       </c>
       <c r="AN8" s="20" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="AO8" s="18" t="s">
         <v>1448</v>
@@ -11864,7 +12028,7 @@
         <v>284</v>
       </c>
       <c r="AT8" s="20" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="AU8" s="4" t="s">
         <v>285</v>
@@ -11876,7 +12040,7 @@
         <v>286</v>
       </c>
       <c r="AX8" s="20" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="AY8" s="4" t="s">
         <v>287</v>
@@ -11948,7 +12112,7 @@
         <v>302</v>
       </c>
       <c r="BV8" s="18" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="BW8" s="3" t="s">
         <v>1271</v>
@@ -12028,7 +12192,7 @@
         <v>310</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>1393</v>
+        <v>1602</v>
       </c>
       <c r="V9" s="19" t="s">
         <v>1394</v>
@@ -12184,7 +12348,7 @@
         <v>339</v>
       </c>
       <c r="BV9" s="18" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="BW9" s="3" t="s">
         <v>1272</v>
@@ -12420,7 +12584,7 @@
         <v>75</v>
       </c>
       <c r="BV10" s="18" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="BW10" s="3" t="s">
         <v>1265</v>
@@ -12572,7 +12736,7 @@
         <v>364</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="AU11" s="5" t="s">
         <v>365</v>
@@ -12584,7 +12748,7 @@
         <v>366</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="AY11" s="5" t="s">
         <v>367</v>
@@ -12656,7 +12820,7 @@
         <v>113</v>
       </c>
       <c r="BV11" s="18" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="BW11" s="3" t="s">
         <v>1266</v>
@@ -12892,7 +13056,7 @@
         <v>151</v>
       </c>
       <c r="BV12" s="18" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="BW12" s="3" t="s">
         <v>1267</v>
@@ -13128,7 +13292,7 @@
         <v>189</v>
       </c>
       <c r="BV13" s="18" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="BW13" s="3" t="s">
         <v>1268</v>
@@ -13208,7 +13372,7 @@
         <v>197</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>1367</v>
+        <v>1603</v>
       </c>
       <c r="V14" s="19" t="s">
         <v>1390</v>
@@ -13364,7 +13528,7 @@
         <v>227</v>
       </c>
       <c r="BV14" s="18" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="BW14" s="3" t="s">
         <v>1269</v>
@@ -13444,7 +13608,7 @@
         <v>235</v>
       </c>
       <c r="U15" s="20" t="s">
-        <v>1369</v>
+        <v>1599</v>
       </c>
       <c r="V15" s="19" t="s">
         <v>1391</v>
@@ -13600,7 +13764,7 @@
         <v>264</v>
       </c>
       <c r="BV15" s="18" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="BW15" s="3" t="s">
         <v>1270</v>
@@ -13680,7 +13844,7 @@
         <v>272</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>1368</v>
+        <v>1604</v>
       </c>
       <c r="V16" s="19" t="s">
         <v>1392</v>
@@ -13719,7 +13883,7 @@
         <v>450</v>
       </c>
       <c r="AI16" s="20" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="AJ16" s="18" t="s">
         <v>1433</v>
@@ -13734,7 +13898,7 @@
         <v>452</v>
       </c>
       <c r="AN16" s="20" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="AO16" s="18" t="s">
         <v>1442</v>
@@ -13752,7 +13916,7 @@
         <v>454</v>
       </c>
       <c r="AT16" s="20" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="AU16" s="4" t="s">
         <v>455</v>
@@ -13764,7 +13928,7 @@
         <v>456</v>
       </c>
       <c r="AX16" s="20" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="AY16" s="4" t="s">
         <v>457</v>
@@ -13836,7 +14000,7 @@
         <v>302</v>
       </c>
       <c r="BV16" s="18" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="BW16" s="3" t="s">
         <v>1271</v>
@@ -13916,7 +14080,7 @@
         <v>310</v>
       </c>
       <c r="U17" s="20" t="s">
-        <v>1393</v>
+        <v>1602</v>
       </c>
       <c r="V17" s="19" t="s">
         <v>1395</v>
@@ -13988,7 +14152,7 @@
         <v>472</v>
       </c>
       <c r="AT17" s="20" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="AU17" s="4" t="s">
         <v>473</v>
@@ -14072,7 +14236,7 @@
         <v>339</v>
       </c>
       <c r="BV17" s="18" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="BW17" s="3" t="s">
         <v>1272</v>
@@ -17229,7 +17393,7 @@
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="J38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>1316</v>
@@ -17242,7 +17406,7 @@
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="J39" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>1317</v>
@@ -17255,7 +17419,7 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="J40" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>1318</v>
@@ -17268,7 +17432,7 @@
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="J41" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K41" s="13" t="s">
         <v>1319</v>
@@ -17281,7 +17445,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="J42" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>1320</v>
@@ -17302,7 +17466,7 @@
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="J45" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>1322</v>
@@ -17315,7 +17479,7 @@
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="J46" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="K46" s="13" t="s">
         <v>1323</v>
@@ -17328,7 +17492,7 @@
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="J47" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K47" s="13" t="s">
         <v>1324</v>
@@ -17341,7 +17505,7 @@
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="J48" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>1325</v>
@@ -17354,7 +17518,7 @@
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="J49" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K49" s="13" t="s">
         <v>1326</v>
@@ -17367,7 +17531,7 @@
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="J50" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="K50" s="13" t="s">
         <v>1327</v>
